--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -4177,28 +4177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7978.725831145258</v>
+        <v>8211.570828568147</v>
       </c>
       <c r="AB2" t="n">
-        <v>10916.84467871456</v>
+        <v>11235.43347658488</v>
       </c>
       <c r="AC2" t="n">
-        <v>9874.95634446537</v>
+        <v>10163.13947460912</v>
       </c>
       <c r="AD2" t="n">
-        <v>7978725.831145258</v>
+        <v>8211570.828568147</v>
       </c>
       <c r="AE2" t="n">
-        <v>10916844.67871456</v>
+        <v>11235433.47658488</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.814953280364994e-07</v>
+        <v>8.383211214646569e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.26458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>9874956.344465371</v>
+        <v>10163139.47460912</v>
       </c>
     </row>
     <row r="3">
@@ -4283,28 +4283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2686.244777327649</v>
+        <v>2815.574612550758</v>
       </c>
       <c r="AB3" t="n">
-        <v>3675.438613095546</v>
+        <v>3852.393399277461</v>
       </c>
       <c r="AC3" t="n">
-        <v>3324.659910372061</v>
+        <v>3484.726380118369</v>
       </c>
       <c r="AD3" t="n">
-        <v>2686244.777327649</v>
+        <v>2815574.612550758</v>
       </c>
       <c r="AE3" t="n">
-        <v>3675438.613095546</v>
+        <v>3852393.399277461</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.092674362015399e-06</v>
+        <v>1.575269744046734e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.81458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3324659.910372061</v>
+        <v>3484726.380118369</v>
       </c>
     </row>
     <row r="4">
@@ -4389,28 +4389,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2067.474694151268</v>
+        <v>2179.53779378341</v>
       </c>
       <c r="AB4" t="n">
-        <v>2828.810087083953</v>
+        <v>2982.139763875684</v>
       </c>
       <c r="AC4" t="n">
-        <v>2558.832422632553</v>
+        <v>2697.528530270834</v>
       </c>
       <c r="AD4" t="n">
-        <v>2067474.694151267</v>
+        <v>2179537.79378341</v>
       </c>
       <c r="AE4" t="n">
-        <v>2828810.087083953</v>
+        <v>2982139.763875684</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.278677007084776e-06</v>
+        <v>1.843423138393808e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.76875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2558832.422632553</v>
+        <v>2697528.530270834</v>
       </c>
     </row>
     <row r="5">
@@ -4495,28 +4495,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1820.967586438532</v>
+        <v>1915.84938084283</v>
       </c>
       <c r="AB5" t="n">
-        <v>2491.528187185324</v>
+        <v>2621.349644178628</v>
       </c>
       <c r="AC5" t="n">
-        <v>2253.74023388213</v>
+        <v>2371.171713225552</v>
       </c>
       <c r="AD5" t="n">
-        <v>1820967.586438532</v>
+        <v>1915849.380842831</v>
       </c>
       <c r="AE5" t="n">
-        <v>2491528.187185324</v>
+        <v>2621349.644178628</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.378899608780982e-06</v>
+        <v>1.987910496759643e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.03958333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2253740.23388213</v>
+        <v>2371171.713225552</v>
       </c>
     </row>
     <row r="6">
@@ -4601,28 +4601,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1677.845282466218</v>
+        <v>1764.179049929603</v>
       </c>
       <c r="AB6" t="n">
-        <v>2295.701936779979</v>
+        <v>2413.827606200394</v>
       </c>
       <c r="AC6" t="n">
-        <v>2076.603365971602</v>
+        <v>2183.455287292951</v>
       </c>
       <c r="AD6" t="n">
-        <v>1677845.282466218</v>
+        <v>1764179.049929603</v>
       </c>
       <c r="AE6" t="n">
-        <v>2295701.936779979</v>
+        <v>2413827.606200394</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.441046374898279e-06</v>
+        <v>2.077505277929724e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.09166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2076603.365971602</v>
+        <v>2183455.287292951</v>
       </c>
     </row>
     <row r="7">
@@ -4707,28 +4707,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1581.366088818891</v>
+        <v>1676.077201514045</v>
       </c>
       <c r="AB7" t="n">
-        <v>2163.694847670082</v>
+        <v>2293.282770418991</v>
       </c>
       <c r="AC7" t="n">
-        <v>1957.194848173241</v>
+        <v>2074.415081452786</v>
       </c>
       <c r="AD7" t="n">
-        <v>1581366.088818891</v>
+        <v>1676077.201514045</v>
       </c>
       <c r="AE7" t="n">
-        <v>2163694.847670082</v>
+        <v>2293282.770418991</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.482623436737317e-06</v>
+        <v>2.137445448430835e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1957194.848173241</v>
+        <v>2074415.081452786</v>
       </c>
     </row>
     <row r="8">
@@ -4813,28 +4813,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1510.715936233289</v>
+        <v>1596.964362842104</v>
       </c>
       <c r="AB8" t="n">
-        <v>2067.028192037707</v>
+        <v>2185.037094335925</v>
       </c>
       <c r="AC8" t="n">
-        <v>1869.753922481916</v>
+        <v>1976.500220771326</v>
       </c>
       <c r="AD8" t="n">
-        <v>1510715.936233289</v>
+        <v>1596964.362842104</v>
       </c>
       <c r="AE8" t="n">
-        <v>2067028.192037707</v>
+        <v>2185037.094335925</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.514426241933492e-06</v>
+        <v>2.183294420954491e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.06875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1869753.922481916</v>
+        <v>1976500.220771326</v>
       </c>
     </row>
     <row r="9">
@@ -4919,28 +4919,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1446.048846636187</v>
+        <v>1532.382524591022</v>
       </c>
       <c r="AB9" t="n">
-        <v>1978.547827140308</v>
+        <v>2096.673374091174</v>
       </c>
       <c r="AC9" t="n">
-        <v>1789.717999427352</v>
+        <v>1896.569809967474</v>
       </c>
       <c r="AD9" t="n">
-        <v>1446048.846636187</v>
+        <v>1532382.524591022</v>
       </c>
       <c r="AE9" t="n">
-        <v>1978547.827140308</v>
+        <v>2096673.374091174</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.537767750334355e-06</v>
+        <v>2.216945042990203e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.76458333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1789717.999427352</v>
+        <v>1896569.809967474</v>
       </c>
     </row>
     <row r="10">
@@ -5025,28 +5025,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1396.042957806415</v>
+        <v>1482.37663576125</v>
       </c>
       <c r="AB10" t="n">
-        <v>1910.127563939297</v>
+        <v>2028.253110890163</v>
       </c>
       <c r="AC10" t="n">
-        <v>1727.827670117804</v>
+        <v>1834.679480657926</v>
       </c>
       <c r="AD10" t="n">
-        <v>1396042.957806415</v>
+        <v>1482376.63576125</v>
       </c>
       <c r="AE10" t="n">
-        <v>1910127.563939297</v>
+        <v>2028253.110890164</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.557316263620078e-06</v>
+        <v>2.245127438945111e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.51666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1727827.670117804</v>
+        <v>1834679.480657926</v>
       </c>
     </row>
     <row r="11">
@@ -5131,28 +5131,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1355.899584160315</v>
+        <v>1442.062669914558</v>
       </c>
       <c r="AB11" t="n">
-        <v>1855.201629116049</v>
+        <v>1973.093764292069</v>
       </c>
       <c r="AC11" t="n">
-        <v>1678.143789425053</v>
+        <v>1784.784464682524</v>
       </c>
       <c r="AD11" t="n">
-        <v>1355899.584160315</v>
+        <v>1442062.669914558</v>
       </c>
       <c r="AE11" t="n">
-        <v>1855201.62911605</v>
+        <v>1973093.764292069</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.571029399805585e-06</v>
+        <v>2.264897179391091e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.34583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1678143.789425053</v>
+        <v>1784784.464682524</v>
       </c>
     </row>
     <row r="12">
@@ -5237,28 +5237,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1318.917762726656</v>
+        <v>1405.080848480899</v>
       </c>
       <c r="AB12" t="n">
-        <v>1804.601469507702</v>
+        <v>1922.493604683722</v>
       </c>
       <c r="AC12" t="n">
-        <v>1632.372838031957</v>
+        <v>1739.013513289428</v>
       </c>
       <c r="AD12" t="n">
-        <v>1318917.762726656</v>
+        <v>1405080.848480899</v>
       </c>
       <c r="AE12" t="n">
-        <v>1804601.469507702</v>
+        <v>1922493.604683722</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.582700154006017e-06</v>
+        <v>2.281722490408947e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.20208333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1632372.838031957</v>
+        <v>1739013.513289428</v>
       </c>
     </row>
     <row r="13">
@@ -5343,28 +5343,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1303.303461150404</v>
+        <v>1381.003860818307</v>
       </c>
       <c r="AB13" t="n">
-        <v>1783.237293236705</v>
+        <v>1889.550407962033</v>
       </c>
       <c r="AC13" t="n">
-        <v>1613.047628759453</v>
+        <v>1709.21436902679</v>
       </c>
       <c r="AD13" t="n">
-        <v>1303303.461150404</v>
+        <v>1381003.860818306</v>
       </c>
       <c r="AE13" t="n">
-        <v>1783237.293236705</v>
+        <v>1889550.407962034</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.587951993396211e-06</v>
+        <v>2.289293880366982e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.13958333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1613047.628759453</v>
+        <v>1709214.36902679</v>
       </c>
     </row>
     <row r="14">
@@ -5449,28 +5449,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1309.807002156164</v>
+        <v>1387.507401824067</v>
       </c>
       <c r="AB14" t="n">
-        <v>1792.135724956766</v>
+        <v>1898.448839682095</v>
       </c>
       <c r="AC14" t="n">
-        <v>1621.096806645179</v>
+        <v>1717.263546912516</v>
       </c>
       <c r="AD14" t="n">
-        <v>1309807.002156164</v>
+        <v>1387507.401824067</v>
       </c>
       <c r="AE14" t="n">
-        <v>1792135.724956766</v>
+        <v>1898448.839682095</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.587806108968706e-06</v>
+        <v>2.289083563979259e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.13958333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1621096.806645179</v>
+        <v>1717263.546912516</v>
       </c>
     </row>
     <row r="15">
@@ -5555,28 +5555,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1314.703462806596</v>
+        <v>1400.866548560838</v>
       </c>
       <c r="AB15" t="n">
-        <v>1798.835278435285</v>
+        <v>1916.727413611304</v>
       </c>
       <c r="AC15" t="n">
-        <v>1627.15696414259</v>
+        <v>1733.797639400062</v>
       </c>
       <c r="AD15" t="n">
-        <v>1314703.462806596</v>
+        <v>1400866.548560838</v>
       </c>
       <c r="AE15" t="n">
-        <v>1798835.278435285</v>
+        <v>1916727.413611304</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.5876602245412e-06</v>
+        <v>2.288873247591536e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.14375</v>
       </c>
       <c r="AH15" t="n">
-        <v>1627156.96414259</v>
+        <v>1733797.639400062</v>
       </c>
     </row>
   </sheetData>
@@ -5852,28 +5852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4823.475202735651</v>
+        <v>5000.070505190123</v>
       </c>
       <c r="AB2" t="n">
-        <v>6599.6915690908</v>
+        <v>6841.317052743918</v>
       </c>
       <c r="AC2" t="n">
-        <v>5969.826268461819</v>
+        <v>6188.391355078568</v>
       </c>
       <c r="AD2" t="n">
-        <v>4823475.20273565</v>
+        <v>5000070.505190123</v>
       </c>
       <c r="AE2" t="n">
-        <v>6599691.5690908</v>
+        <v>6841317.052743918</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.648392432002688e-07</v>
+        <v>1.119695879593755e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.11041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5969826.26846182</v>
+        <v>6188391.355078569</v>
       </c>
     </row>
     <row r="3">
@@ -5958,28 +5958,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2109.747629373053</v>
+        <v>2219.003543387502</v>
       </c>
       <c r="AB3" t="n">
-        <v>2886.64978200468</v>
+        <v>3036.138543590169</v>
       </c>
       <c r="AC3" t="n">
-        <v>2611.151978248567</v>
+        <v>2746.373742237019</v>
       </c>
       <c r="AD3" t="n">
-        <v>2109747.629373053</v>
+        <v>2219003.543387502</v>
       </c>
       <c r="AE3" t="n">
-        <v>2886649.78200468</v>
+        <v>3036138.543590169</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.234337050145027e-06</v>
+        <v>1.807023006945012e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.47083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2611151.978248567</v>
+        <v>2746373.742237018</v>
       </c>
     </row>
     <row r="4">
@@ -6064,28 +6064,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1688.674691159001</v>
+        <v>1781.181098918014</v>
       </c>
       <c r="AB4" t="n">
-        <v>2310.519211513239</v>
+        <v>2437.090559703801</v>
       </c>
       <c r="AC4" t="n">
-        <v>2090.006500800495</v>
+        <v>2204.498057163753</v>
       </c>
       <c r="AD4" t="n">
-        <v>1688674.691159001</v>
+        <v>1781181.098918014</v>
       </c>
       <c r="AE4" t="n">
-        <v>2310519.211513238</v>
+        <v>2437090.559703801</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.403060466462687e-06</v>
+        <v>2.054027741235821e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.40833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2090006.500800495</v>
+        <v>2204498.057163753</v>
       </c>
     </row>
     <row r="5">
@@ -6170,28 +6170,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1505.255496791557</v>
+        <v>1589.429821850139</v>
       </c>
       <c r="AB5" t="n">
-        <v>2059.556977895943</v>
+        <v>2174.72800295023</v>
       </c>
       <c r="AC5" t="n">
-        <v>1862.995750531927</v>
+        <v>1967.175014598582</v>
       </c>
       <c r="AD5" t="n">
-        <v>1505255.496791557</v>
+        <v>1589429.821850139</v>
       </c>
       <c r="AE5" t="n">
-        <v>2059556.977895943</v>
+        <v>2174728.00295023</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.492402382795473e-06</v>
+        <v>2.18482094579768e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.06666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1862995.750531927</v>
+        <v>1967175.014598581</v>
       </c>
     </row>
     <row r="6">
@@ -6276,28 +6276,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1392.223112412813</v>
+        <v>1476.312096616823</v>
       </c>
       <c r="AB6" t="n">
-        <v>1904.901082952086</v>
+        <v>2019.955340884175</v>
       </c>
       <c r="AC6" t="n">
-        <v>1723.0999971406</v>
+        <v>1827.173638175315</v>
       </c>
       <c r="AD6" t="n">
-        <v>1392223.112412813</v>
+        <v>1476312.096616823</v>
       </c>
       <c r="AE6" t="n">
-        <v>1904901.082952086</v>
+        <v>2019955.340884175</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.546731926511356e-06</v>
+        <v>2.264357353977189e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.32708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1723099.9971406</v>
+        <v>1827173.638175315</v>
       </c>
     </row>
     <row r="7">
@@ -6382,28 +6382,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1305.430020498535</v>
+        <v>1397.850997894426</v>
       </c>
       <c r="AB7" t="n">
-        <v>1786.146945553996</v>
+        <v>1912.601404152812</v>
       </c>
       <c r="AC7" t="n">
-        <v>1615.679587943305</v>
+        <v>1730.065410493397</v>
       </c>
       <c r="AD7" t="n">
-        <v>1305430.020498535</v>
+        <v>1397850.997894425</v>
       </c>
       <c r="AE7" t="n">
-        <v>1786146.945553996</v>
+        <v>1912601.404152812</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.585215353310107e-06</v>
+        <v>2.320695643104341e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1615679.587943305</v>
+        <v>1730065.410493397</v>
       </c>
     </row>
     <row r="8">
@@ -6488,28 +6488,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1240.331571633928</v>
+        <v>1324.335214983367</v>
       </c>
       <c r="AB8" t="n">
-        <v>1697.076375876569</v>
+        <v>1812.013866686459</v>
       </c>
       <c r="AC8" t="n">
-        <v>1535.109788424561</v>
+        <v>1639.077806427338</v>
       </c>
       <c r="AD8" t="n">
-        <v>1240331.571633928</v>
+        <v>1324335.214983367</v>
       </c>
       <c r="AE8" t="n">
-        <v>1697076.375876569</v>
+        <v>1812013.866686459</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.612380125168049e-06</v>
+        <v>2.360463847194096e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1535109.788424561</v>
+        <v>1639077.806427338</v>
       </c>
     </row>
     <row r="9">
@@ -6594,28 +6594,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1197.790417873992</v>
+        <v>1281.794061223431</v>
       </c>
       <c r="AB9" t="n">
-        <v>1638.869692518977</v>
+        <v>1753.807183328867</v>
       </c>
       <c r="AC9" t="n">
-        <v>1482.458269233025</v>
+        <v>1586.426287235801</v>
       </c>
       <c r="AD9" t="n">
-        <v>1197790.417873992</v>
+        <v>1281794.061223431</v>
       </c>
       <c r="AE9" t="n">
-        <v>1638869.692518977</v>
+        <v>1753807.183328867</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.62792441128676e-06</v>
+        <v>2.383220097312122e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.3125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1482458.269233025</v>
+        <v>1586426.287235801</v>
       </c>
     </row>
     <row r="10">
@@ -6700,28 +6700,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1189.423168479011</v>
+        <v>1273.426811828449</v>
       </c>
       <c r="AB10" t="n">
-        <v>1627.421252759772</v>
+        <v>1742.358743569663</v>
       </c>
       <c r="AC10" t="n">
-        <v>1472.102452496452</v>
+        <v>1576.070470499229</v>
       </c>
       <c r="AD10" t="n">
-        <v>1189423.168479011</v>
+        <v>1273426.811828449</v>
       </c>
       <c r="AE10" t="n">
-        <v>1627421.252759772</v>
+        <v>1742358.743569663</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.63365919645677e-06</v>
+        <v>2.391615607064403e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.24583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1472102.452496452</v>
+        <v>1576070.470499229</v>
       </c>
     </row>
     <row r="11">
@@ -6806,28 +6806,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1193.577617834062</v>
+        <v>1277.5812611835</v>
       </c>
       <c r="AB11" t="n">
-        <v>1633.105553648723</v>
+        <v>1748.043044458614</v>
       </c>
       <c r="AC11" t="n">
-        <v>1477.244251686528</v>
+        <v>1581.212269689305</v>
       </c>
       <c r="AD11" t="n">
-        <v>1193577.617834062</v>
+        <v>1277581.2611835</v>
       </c>
       <c r="AE11" t="n">
-        <v>1633105.553648723</v>
+        <v>1748043.044458614</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.633357365658348e-06</v>
+        <v>2.391173738130073e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.24791666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1477244.251686528</v>
+        <v>1581212.269689305</v>
       </c>
     </row>
   </sheetData>
@@ -7103,28 +7103,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1572.248156373169</v>
+        <v>1673.137658572266</v>
       </c>
       <c r="AB2" t="n">
-        <v>2151.219290243055</v>
+        <v>2289.260758082567</v>
       </c>
       <c r="AC2" t="n">
-        <v>1945.909940437494</v>
+        <v>2070.776924328819</v>
       </c>
       <c r="AD2" t="n">
-        <v>1572248.156373169</v>
+        <v>1673137.658572266</v>
       </c>
       <c r="AE2" t="n">
-        <v>2151219.290243055</v>
+        <v>2289260.758082567</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.341639617326198e-06</v>
+        <v>2.075682090492576e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.15</v>
       </c>
       <c r="AH2" t="n">
-        <v>1945909.940437494</v>
+        <v>2070776.924328819</v>
       </c>
     </row>
     <row r="3">
@@ -7209,28 +7209,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1009.584318191705</v>
+        <v>1094.939153413772</v>
       </c>
       <c r="AB3" t="n">
-        <v>1381.357803866555</v>
+        <v>1498.144055006954</v>
       </c>
       <c r="AC3" t="n">
-        <v>1249.522953813384</v>
+        <v>1355.163289055477</v>
       </c>
       <c r="AD3" t="n">
-        <v>1009584.318191705</v>
+        <v>1094939.153413772</v>
       </c>
       <c r="AE3" t="n">
-        <v>1381357.803866555</v>
+        <v>1498144.055006954</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.675912824354251e-06</v>
+        <v>2.59284400208135e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.93333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1249522.953813384</v>
+        <v>1355163.289055477</v>
       </c>
     </row>
     <row r="4">
@@ -7315,28 +7315,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>928.0154965663</v>
+        <v>1005.603132562678</v>
       </c>
       <c r="AB4" t="n">
-        <v>1269.751743556239</v>
+        <v>1375.910570051406</v>
       </c>
       <c r="AC4" t="n">
-        <v>1148.568419258996</v>
+        <v>1244.595596348312</v>
       </c>
       <c r="AD4" t="n">
-        <v>928015.4965663</v>
+        <v>1005603.132562678</v>
       </c>
       <c r="AE4" t="n">
-        <v>1269751.743556239</v>
+        <v>1375910.570051406</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.738557475746914e-06</v>
+        <v>2.689763010197735e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.17916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1148568.419258996</v>
+        <v>1244595.596348312</v>
       </c>
     </row>
     <row r="5">
@@ -7421,28 +7421,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>935.1625745279191</v>
+        <v>1012.750210524297</v>
       </c>
       <c r="AB5" t="n">
-        <v>1279.530690930153</v>
+        <v>1385.689517425319</v>
       </c>
       <c r="AC5" t="n">
-        <v>1157.414077620382</v>
+        <v>1253.441254709698</v>
       </c>
       <c r="AD5" t="n">
-        <v>935162.5745279191</v>
+        <v>1012750.210524297</v>
       </c>
       <c r="AE5" t="n">
-        <v>1279530.690930153</v>
+        <v>1385689.517425319</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.738389076146396e-06</v>
+        <v>2.68950247522968e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.18125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1157414.077620382</v>
+        <v>1253441.254709698</v>
       </c>
     </row>
   </sheetData>
@@ -7718,28 +7718,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2361.56463792053</v>
+        <v>2481.801369250678</v>
       </c>
       <c r="AB2" t="n">
-        <v>3231.196922481879</v>
+        <v>3395.710122758014</v>
       </c>
       <c r="AC2" t="n">
-        <v>2922.81602321345</v>
+        <v>3071.628314550951</v>
       </c>
       <c r="AD2" t="n">
-        <v>2361564.637920531</v>
+        <v>2481801.369250678</v>
       </c>
       <c r="AE2" t="n">
-        <v>3231196.92248188</v>
+        <v>3395710.122758014</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.108385572176012e-06</v>
+        <v>1.675096429934892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.28125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2922816.02321345</v>
+        <v>3071628.314550951</v>
       </c>
     </row>
     <row r="3">
@@ -7824,28 +7824,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1370.633156493916</v>
+        <v>1458.784025777086</v>
       </c>
       <c r="AB3" t="n">
-        <v>1875.360752782218</v>
+        <v>1995.972661077336</v>
       </c>
       <c r="AC3" t="n">
-        <v>1696.37895462203</v>
+        <v>1805.479831669338</v>
       </c>
       <c r="AD3" t="n">
-        <v>1370633.156493916</v>
+        <v>1458784.025777086</v>
       </c>
       <c r="AE3" t="n">
-        <v>1875360.752782218</v>
+        <v>1995972.661077336</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.498898163303141e-06</v>
+        <v>2.265275753504976e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.39166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1696378.95462203</v>
+        <v>1805479.831669339</v>
       </c>
     </row>
     <row r="4">
@@ -7930,28 +7930,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1140.511035558843</v>
+        <v>1228.661815333462</v>
       </c>
       <c r="AB4" t="n">
-        <v>1560.497514647388</v>
+        <v>1681.109300472957</v>
       </c>
       <c r="AC4" t="n">
-        <v>1411.565822021458</v>
+        <v>1520.666588287539</v>
       </c>
       <c r="AD4" t="n">
-        <v>1140511.035558843</v>
+        <v>1228661.815333462</v>
       </c>
       <c r="AE4" t="n">
-        <v>1560497.514647388</v>
+        <v>1681109.300472957</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.634868718959617e-06</v>
+        <v>2.470767234153965e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.52916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1411565.822021458</v>
+        <v>1520666.588287539</v>
       </c>
     </row>
     <row r="5">
@@ -8036,28 +8036,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1025.763862070314</v>
+        <v>1105.978517187759</v>
       </c>
       <c r="AB5" t="n">
-        <v>1403.495369592365</v>
+        <v>1513.248599544881</v>
       </c>
       <c r="AC5" t="n">
-        <v>1269.547741336592</v>
+        <v>1368.826277062066</v>
       </c>
       <c r="AD5" t="n">
-        <v>1025763.862070314</v>
+        <v>1105978.517187759</v>
       </c>
       <c r="AE5" t="n">
-        <v>1403495.369592366</v>
+        <v>1513248.599544881</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.69850422782728e-06</v>
+        <v>2.566939194884239e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.76041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1269547.741336592</v>
+        <v>1368826.277062066</v>
       </c>
     </row>
     <row r="6">
@@ -8142,28 +8142,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1017.679154235698</v>
+        <v>1097.893809353144</v>
       </c>
       <c r="AB6" t="n">
-        <v>1392.433515660908</v>
+        <v>1502.186745613424</v>
       </c>
       <c r="AC6" t="n">
-        <v>1259.541615218944</v>
+        <v>1358.820150944417</v>
       </c>
       <c r="AD6" t="n">
-        <v>1017679.154235698</v>
+        <v>1097893.809353144</v>
       </c>
       <c r="AE6" t="n">
-        <v>1392433.515660908</v>
+        <v>1502186.745613424</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.706237150423857e-06</v>
+        <v>2.578625914162854e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.67083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1259541.615218944</v>
+        <v>1358820.150944417</v>
       </c>
     </row>
     <row r="7">
@@ -8248,28 +8248,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1023.500260886407</v>
+        <v>1103.714916003853</v>
       </c>
       <c r="AB7" t="n">
-        <v>1400.398210589509</v>
+        <v>1510.151440542024</v>
       </c>
       <c r="AC7" t="n">
-        <v>1266.746170842078</v>
+        <v>1366.024706567551</v>
       </c>
       <c r="AD7" t="n">
-        <v>1023500.260886407</v>
+        <v>1103714.916003853</v>
       </c>
       <c r="AE7" t="n">
-        <v>1400398.210589509</v>
+        <v>1510151.440542024</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.705914945315666e-06</v>
+        <v>2.578138967526245e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.675</v>
       </c>
       <c r="AH7" t="n">
-        <v>1266746.170842078</v>
+        <v>1366024.706567551</v>
       </c>
     </row>
   </sheetData>
@@ -8545,28 +8545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1112.690915961652</v>
+        <v>1203.396655607346</v>
       </c>
       <c r="AB2" t="n">
-        <v>1522.432799677455</v>
+        <v>1646.540394315503</v>
       </c>
       <c r="AC2" t="n">
-        <v>1377.133950024093</v>
+        <v>1489.396890015989</v>
       </c>
       <c r="AD2" t="n">
-        <v>1112690.915961652</v>
+        <v>1203396.655607346</v>
       </c>
       <c r="AE2" t="n">
-        <v>1522432.799677455</v>
+        <v>1646540.394315503</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.546265744678271e-06</v>
+        <v>2.443854439342059e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.56458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1377133.950024093</v>
+        <v>1489396.890015989</v>
       </c>
     </row>
     <row r="3">
@@ -8651,28 +8651,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>860.7127138638118</v>
+        <v>943.7743010177931</v>
       </c>
       <c r="AB3" t="n">
-        <v>1177.665107073477</v>
+        <v>1291.313635036157</v>
       </c>
       <c r="AC3" t="n">
-        <v>1065.270402117742</v>
+        <v>1168.072474078375</v>
       </c>
       <c r="AD3" t="n">
-        <v>860712.7138638118</v>
+        <v>943774.301017793</v>
       </c>
       <c r="AE3" t="n">
-        <v>1177665.107073477</v>
+        <v>1291313.635036157</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.743724632331451e-06</v>
+        <v>2.755935839864305e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.89583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1065270.402117742</v>
+        <v>1168072.474078375</v>
       </c>
     </row>
     <row r="4">
@@ -8757,28 +8757,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>866.7855597253988</v>
+        <v>949.8471468793799</v>
       </c>
       <c r="AB4" t="n">
-        <v>1185.974242696351</v>
+        <v>1299.622770659031</v>
       </c>
       <c r="AC4" t="n">
-        <v>1072.786525498714</v>
+        <v>1175.588597459348</v>
       </c>
       <c r="AD4" t="n">
-        <v>866785.5597253988</v>
+        <v>949847.1468793799</v>
       </c>
       <c r="AE4" t="n">
-        <v>1185974.242696351</v>
+        <v>1299622.770659031</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.744948912414332e-06</v>
+        <v>2.757870799832114e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.88125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1072786.525498714</v>
+        <v>1175588.597459347</v>
       </c>
     </row>
   </sheetData>
@@ -9054,28 +9054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5438.942715495329</v>
+        <v>5625.204141648424</v>
       </c>
       <c r="AB2" t="n">
-        <v>7441.801372558976</v>
+        <v>7696.65247309583</v>
       </c>
       <c r="AC2" t="n">
-        <v>6731.566294195491</v>
+        <v>6962.094763382866</v>
       </c>
       <c r="AD2" t="n">
-        <v>5438942.715495329</v>
+        <v>5625204.141648424</v>
       </c>
       <c r="AE2" t="n">
-        <v>7441801.372558977</v>
+        <v>7696652.47309583</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.165407000043364e-07</v>
+        <v>1.044634861981207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.4875</v>
       </c>
       <c r="AH2" t="n">
-        <v>6731566.294195491</v>
+        <v>6962094.763382866</v>
       </c>
     </row>
     <row r="3">
@@ -9160,28 +9160,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2248.969278511275</v>
+        <v>2359.048401646978</v>
       </c>
       <c r="AB3" t="n">
-        <v>3077.138984381448</v>
+        <v>3227.754097003896</v>
       </c>
       <c r="AC3" t="n">
-        <v>2783.461158503656</v>
+        <v>2919.70177616705</v>
       </c>
       <c r="AD3" t="n">
-        <v>2248969.278511275</v>
+        <v>2359048.401646978</v>
       </c>
       <c r="AE3" t="n">
-        <v>3077138.984381448</v>
+        <v>3227754.097003896</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.197375254484391e-06</v>
+        <v>1.745636966191097e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.02291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2783461.158503656</v>
+        <v>2919701.77616705</v>
       </c>
     </row>
     <row r="4">
@@ -9266,28 +9266,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1777.073209377697</v>
+        <v>1878.678060352409</v>
       </c>
       <c r="AB4" t="n">
-        <v>2431.469964007443</v>
+        <v>2570.490203600711</v>
       </c>
       <c r="AC4" t="n">
-        <v>2199.4138832321</v>
+        <v>2325.166226274719</v>
       </c>
       <c r="AD4" t="n">
-        <v>1777073.209377697</v>
+        <v>1878678.060352409</v>
       </c>
       <c r="AE4" t="n">
-        <v>2431469.964007443</v>
+        <v>2570490.203600711</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.370864549413431e-06</v>
+        <v>1.998564630540544e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.72916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2199413.8832321</v>
+        <v>2325166.226274719</v>
       </c>
     </row>
     <row r="5">
@@ -9372,28 +9372,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1582.395537436244</v>
+        <v>1675.440954412495</v>
       </c>
       <c r="AB5" t="n">
-        <v>2165.103384684412</v>
+        <v>2292.412229065409</v>
       </c>
       <c r="AC5" t="n">
-        <v>1958.468956391817</v>
+        <v>2073.627623344176</v>
       </c>
       <c r="AD5" t="n">
-        <v>1582395.537436244</v>
+        <v>1675440.954412495</v>
       </c>
       <c r="AE5" t="n">
-        <v>2165103.384684412</v>
+        <v>2292412.229065409</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.461946429251177e-06</v>
+        <v>2.131351654324004e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.3125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1958468.956391817</v>
+        <v>2073627.623344176</v>
       </c>
     </row>
     <row r="6">
@@ -9478,28 +9478,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1459.535051438474</v>
+        <v>1552.495127560154</v>
       </c>
       <c r="AB6" t="n">
-        <v>1997.000247520162</v>
+        <v>2124.192324778961</v>
       </c>
       <c r="AC6" t="n">
-        <v>1806.409346704288</v>
+        <v>1921.462390624709</v>
       </c>
       <c r="AD6" t="n">
-        <v>1459535.051438474</v>
+        <v>1552495.127560154</v>
       </c>
       <c r="AE6" t="n">
-        <v>1997000.247520162</v>
+        <v>2124192.324778961</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.5199756072102e-06</v>
+        <v>2.215951597227095e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1806409.346704288</v>
+        <v>1921462.390624709</v>
       </c>
     </row>
     <row r="7">
@@ -9584,28 +9584,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1383.019448207093</v>
+        <v>1467.676023385476</v>
       </c>
       <c r="AB7" t="n">
-        <v>1892.308223548812</v>
+        <v>2008.139084492384</v>
       </c>
       <c r="AC7" t="n">
-        <v>1711.708982564585</v>
+        <v>1816.485108709337</v>
       </c>
       <c r="AD7" t="n">
-        <v>1383019.448207093</v>
+        <v>1467676.023385476</v>
       </c>
       <c r="AE7" t="n">
-        <v>1892308.223548812</v>
+        <v>2008139.084492384</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.557365541462148e-06</v>
+        <v>2.2704618697162e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.00625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1711708.982564585</v>
+        <v>1816485.108709337</v>
       </c>
     </row>
     <row r="8">
@@ -9690,28 +9690,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1308.19261639058</v>
+        <v>1392.934442914983</v>
       </c>
       <c r="AB8" t="n">
-        <v>1789.92685113062</v>
+        <v>1905.874356726842</v>
       </c>
       <c r="AC8" t="n">
-        <v>1619.098744636827</v>
+        <v>1723.980383032291</v>
       </c>
       <c r="AD8" t="n">
-        <v>1308192.61639058</v>
+        <v>1392934.442914983</v>
       </c>
       <c r="AE8" t="n">
-        <v>1789926.85113062</v>
+        <v>1905874.356726842</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.586828809652684e-06</v>
+        <v>2.313415964437615e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.63541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1619098.744636827</v>
+        <v>1723980.383032291</v>
       </c>
     </row>
     <row r="9">
@@ -9796,28 +9796,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1254.883376741765</v>
+        <v>1339.454611065576</v>
       </c>
       <c r="AB9" t="n">
-        <v>1716.986797605443</v>
+        <v>1832.700891426818</v>
       </c>
       <c r="AC9" t="n">
-        <v>1553.119987448085</v>
+        <v>1657.790490560898</v>
       </c>
       <c r="AD9" t="n">
-        <v>1254883.376741765</v>
+        <v>1339454.611065576</v>
       </c>
       <c r="AE9" t="n">
-        <v>1716986.797605443</v>
+        <v>1832700.891426818</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.606869814411728e-06</v>
+        <v>2.342633470491775e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.39166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1553119.987448085</v>
+        <v>1657790.490560898</v>
       </c>
     </row>
     <row r="10">
@@ -9902,28 +9902,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1220.073451674522</v>
+        <v>1304.644685998333</v>
       </c>
       <c r="AB10" t="n">
-        <v>1669.358322422932</v>
+        <v>1785.072416244306</v>
       </c>
       <c r="AC10" t="n">
-        <v>1510.037107090007</v>
+        <v>1614.70761020282</v>
       </c>
       <c r="AD10" t="n">
-        <v>1220073.451674522</v>
+        <v>1304644.685998333</v>
       </c>
       <c r="AE10" t="n">
-        <v>1669358.322422932</v>
+        <v>1785072.416244306</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.619283272583375e-06</v>
+        <v>2.360730880958158e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.24166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1510037.107090007</v>
+        <v>1614707.61020282</v>
       </c>
     </row>
     <row r="11">
@@ -10008,28 +10008,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1220.424408541958</v>
+        <v>1304.995642865769</v>
       </c>
       <c r="AB11" t="n">
-        <v>1669.838517092081</v>
+        <v>1785.552610913456</v>
       </c>
       <c r="AC11" t="n">
-        <v>1510.471472653891</v>
+        <v>1615.141975766704</v>
       </c>
       <c r="AD11" t="n">
-        <v>1220424.408541958</v>
+        <v>1304995.642865769</v>
       </c>
       <c r="AE11" t="n">
-        <v>1669838.517092081</v>
+        <v>1785552.610913456</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.621526668638492e-06</v>
+        <v>2.364001497307504e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.21666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1510471.472653891</v>
+        <v>1615141.975766704</v>
       </c>
     </row>
     <row r="12">
@@ -10114,28 +10114,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1226.523841548744</v>
+        <v>1311.095075872555</v>
       </c>
       <c r="AB12" t="n">
-        <v>1678.18403041996</v>
+        <v>1793.898124241334</v>
       </c>
       <c r="AC12" t="n">
-        <v>1518.020501902758</v>
+        <v>1622.691005015571</v>
       </c>
       <c r="AD12" t="n">
-        <v>1226523.841548744</v>
+        <v>1311095.075872555</v>
       </c>
       <c r="AE12" t="n">
-        <v>1678184.030419959</v>
+        <v>1793898.124241334</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.621227549164476e-06</v>
+        <v>2.363565415127591e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.21875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1518020.501902758</v>
+        <v>1622691.005015571</v>
       </c>
     </row>
   </sheetData>
@@ -10411,28 +10411,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>902.8442473757519</v>
+        <v>984.5479778212133</v>
       </c>
       <c r="AB2" t="n">
-        <v>1235.31132993659</v>
+        <v>1347.101978446264</v>
       </c>
       <c r="AC2" t="n">
-        <v>1117.414950377782</v>
+        <v>1218.536456292853</v>
       </c>
       <c r="AD2" t="n">
-        <v>902844.247375752</v>
+        <v>984547.9778212133</v>
       </c>
       <c r="AE2" t="n">
-        <v>1235311.329936591</v>
+        <v>1347101.978446264</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.667438851432087e-06</v>
+        <v>2.671628717508564e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.3625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1117414.950377782</v>
+        <v>1218536.456292853</v>
       </c>
     </row>
     <row r="3">
@@ -10517,28 +10517,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>834.0132153992462</v>
+        <v>915.8021971907278</v>
       </c>
       <c r="AB3" t="n">
-        <v>1141.133675375518</v>
+        <v>1253.040968537841</v>
       </c>
       <c r="AC3" t="n">
-        <v>1032.22547898885</v>
+        <v>1133.452497154633</v>
       </c>
       <c r="AD3" t="n">
-        <v>834013.2153992462</v>
+        <v>915802.1971907278</v>
       </c>
       <c r="AE3" t="n">
-        <v>1141133.675375518</v>
+        <v>1253040.968537841</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.73420084065323e-06</v>
+        <v>2.778597106477081e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.50208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1032225.47898885</v>
+        <v>1133452.497154633</v>
       </c>
     </row>
   </sheetData>
@@ -10814,28 +10814,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3385.743120995273</v>
+        <v>3533.770359590193</v>
       </c>
       <c r="AB2" t="n">
-        <v>4632.523106590599</v>
+        <v>4835.060504937049</v>
       </c>
       <c r="AC2" t="n">
-        <v>4190.401603084433</v>
+        <v>4373.609116395713</v>
       </c>
       <c r="AD2" t="n">
-        <v>3385743.120995273</v>
+        <v>3533770.359590193</v>
       </c>
       <c r="AE2" t="n">
-        <v>4632523.106590599</v>
+        <v>4835060.504937049</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.231419076767149e-07</v>
+        <v>1.370720981598893e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.09166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4190401.603084433</v>
+        <v>4373609.116395713</v>
       </c>
     </row>
     <row r="3">
@@ -10920,28 +10920,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1725.101575525778</v>
+        <v>1831.962660502283</v>
       </c>
       <c r="AB3" t="n">
-        <v>2360.360081744582</v>
+        <v>2506.572132587781</v>
       </c>
       <c r="AC3" t="n">
-        <v>2135.09062832906</v>
+        <v>2267.348406249685</v>
       </c>
       <c r="AD3" t="n">
-        <v>1725101.575525778</v>
+        <v>1831962.660502283</v>
       </c>
       <c r="AE3" t="n">
-        <v>2360360.081744582</v>
+        <v>2506572.132587781</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.355714046325295e-06</v>
+        <v>2.013022778938985e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.89375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2135090.62832906</v>
+        <v>2267348.406249686</v>
       </c>
     </row>
     <row r="4">
@@ -11026,28 +11026,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1416.123276150491</v>
+        <v>1506.518024991601</v>
       </c>
       <c r="AB4" t="n">
-        <v>1937.602341378785</v>
+        <v>2061.284424678056</v>
       </c>
       <c r="AC4" t="n">
-        <v>1752.680293359559</v>
+        <v>1864.558332217642</v>
       </c>
       <c r="AD4" t="n">
-        <v>1416123.276150491</v>
+        <v>1506518.024991601</v>
       </c>
       <c r="AE4" t="n">
-        <v>1937602.341378785</v>
+        <v>2061284.424678056</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.50949328612524e-06</v>
+        <v>2.241360837015674e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.46041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1752680.293359559</v>
+        <v>1864558.332217642</v>
       </c>
     </row>
     <row r="5">
@@ -11132,28 +11132,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1265.418755864867</v>
+        <v>1347.665632738576</v>
       </c>
       <c r="AB5" t="n">
-        <v>1731.401768109795</v>
+        <v>1843.935573524526</v>
       </c>
       <c r="AC5" t="n">
-        <v>1566.15921339904</v>
+        <v>1667.952950367176</v>
       </c>
       <c r="AD5" t="n">
-        <v>1265418.755864867</v>
+        <v>1347665.632738576</v>
       </c>
       <c r="AE5" t="n">
-        <v>1731401.768109795</v>
+        <v>1843935.573524526</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.590814360357162e-06</v>
+        <v>2.362109880872205e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.3625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1566159.21339904</v>
+        <v>1667952.950367176</v>
       </c>
     </row>
     <row r="6">
@@ -11238,28 +11238,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1161.234236897786</v>
+        <v>1243.566365117515</v>
       </c>
       <c r="AB6" t="n">
-        <v>1588.851912962448</v>
+        <v>1701.502363029828</v>
       </c>
       <c r="AC6" t="n">
-        <v>1437.214116356977</v>
+        <v>1539.113365575826</v>
       </c>
       <c r="AD6" t="n">
-        <v>1161234.236897786</v>
+        <v>1243566.365117515</v>
       </c>
       <c r="AE6" t="n">
-        <v>1588851.912962448</v>
+        <v>1701502.363029828</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.639327123570087e-06</v>
+        <v>2.434143727302869e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.76041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1437214.116356977</v>
+        <v>1539113.365575826</v>
       </c>
     </row>
     <row r="7">
@@ -11344,28 +11344,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1108.221525304465</v>
+        <v>1190.383061323602</v>
       </c>
       <c r="AB7" t="n">
-        <v>1516.317582204692</v>
+        <v>1628.734620497225</v>
       </c>
       <c r="AC7" t="n">
-        <v>1371.602360324169</v>
+        <v>1473.290474260366</v>
       </c>
       <c r="AD7" t="n">
-        <v>1108221.525304465</v>
+        <v>1190383.061323602</v>
       </c>
       <c r="AE7" t="n">
-        <v>1516317.582204692</v>
+        <v>1628734.620497225</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.665293891059056e-06</v>
+        <v>2.472700305360308e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.45208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1371602.360324169</v>
+        <v>1473290.474260366</v>
       </c>
     </row>
     <row r="8">
@@ -11450,28 +11450,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1101.955144218313</v>
+        <v>1184.116680237449</v>
       </c>
       <c r="AB8" t="n">
-        <v>1507.743643149396</v>
+        <v>1620.160681441929</v>
       </c>
       <c r="AC8" t="n">
-        <v>1363.846705978711</v>
+        <v>1465.534819914909</v>
       </c>
       <c r="AD8" t="n">
-        <v>1101955.144218313</v>
+        <v>1184116.680237449</v>
       </c>
       <c r="AE8" t="n">
-        <v>1507743.643149396</v>
+        <v>1620160.681441929</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.6693366213268e-06</v>
+        <v>2.478703125896197e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.40416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1363846.705978711</v>
+        <v>1465534.819914909</v>
       </c>
     </row>
     <row r="9">
@@ -11556,28 +11556,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1108.331388067962</v>
+        <v>1190.492924087099</v>
       </c>
       <c r="AB9" t="n">
-        <v>1516.467901284512</v>
+        <v>1628.884939577045</v>
       </c>
       <c r="AC9" t="n">
-        <v>1371.738333161985</v>
+        <v>1473.426447098183</v>
       </c>
       <c r="AD9" t="n">
-        <v>1108331.388067962</v>
+        <v>1190492.924087099</v>
       </c>
       <c r="AE9" t="n">
-        <v>1516467.901284512</v>
+        <v>1628884.939577045</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.669492110952482e-06</v>
+        <v>2.478934003609116e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.40416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1371738.333161985</v>
+        <v>1473426.447098183</v>
       </c>
     </row>
   </sheetData>
@@ -11853,28 +11853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4280.112095426585</v>
+        <v>4455.384701417451</v>
       </c>
       <c r="AB2" t="n">
-        <v>5856.238194182023</v>
+        <v>6096.053906180387</v>
       </c>
       <c r="AC2" t="n">
-        <v>5297.327040210997</v>
+        <v>5514.255077239693</v>
       </c>
       <c r="AD2" t="n">
-        <v>4280112.095426586</v>
+        <v>4455384.701417451</v>
       </c>
       <c r="AE2" t="n">
-        <v>5856238.194182023</v>
+        <v>6096053.906180386</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.147616769845483e-07</v>
+        <v>1.198060180215096e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.95416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5297327.040210997</v>
+        <v>5514255.077239692</v>
       </c>
     </row>
     <row r="3">
@@ -11959,28 +11959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1973.885749742336</v>
+        <v>2082.460988469172</v>
       </c>
       <c r="AB3" t="n">
-        <v>2700.757564490824</v>
+        <v>2849.314996118353</v>
       </c>
       <c r="AC3" t="n">
-        <v>2443.001053072868</v>
+        <v>2577.38037192753</v>
       </c>
       <c r="AD3" t="n">
-        <v>1973885.749742336</v>
+        <v>2082460.988469172</v>
       </c>
       <c r="AE3" t="n">
-        <v>2700757.564490824</v>
+        <v>2849314.996118353</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.273636428494918e-06</v>
+        <v>1.872809107441698e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.91875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2443001.053072868</v>
+        <v>2577380.37192753</v>
       </c>
     </row>
     <row r="4">
@@ -12065,28 +12065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1599.456938762621</v>
+        <v>1691.315254754714</v>
       </c>
       <c r="AB4" t="n">
-        <v>2188.447546675065</v>
+        <v>2314.132147118336</v>
       </c>
       <c r="AC4" t="n">
-        <v>1979.585184325819</v>
+        <v>2093.274622902229</v>
       </c>
       <c r="AD4" t="n">
-        <v>1599456.938762621</v>
+        <v>1691315.254754714</v>
       </c>
       <c r="AE4" t="n">
-        <v>2188447.546675065</v>
+        <v>2314132.147118337</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.436954401144028e-06</v>
+        <v>2.112958792032309e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.0875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1979585.184325818</v>
+        <v>2093274.622902229</v>
       </c>
     </row>
     <row r="5">
@@ -12171,28 +12171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1422.631164208678</v>
+        <v>1514.48939069222</v>
       </c>
       <c r="AB5" t="n">
-        <v>1946.506720927755</v>
+        <v>2072.191198901479</v>
       </c>
       <c r="AC5" t="n">
-        <v>1760.734851421751</v>
+        <v>1874.424179216935</v>
       </c>
       <c r="AD5" t="n">
-        <v>1422631.164208678</v>
+        <v>1514489.39069222</v>
       </c>
       <c r="AE5" t="n">
-        <v>1946506.720927755</v>
+        <v>2072191.198901479</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.522269759990577e-06</v>
+        <v>2.238410119803523e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.85</v>
       </c>
       <c r="AH5" t="n">
-        <v>1760734.851421751</v>
+        <v>1874424.179216935</v>
       </c>
     </row>
     <row r="6">
@@ -12277,28 +12277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1323.15511517359</v>
+        <v>1406.654925044037</v>
       </c>
       <c r="AB6" t="n">
-        <v>1810.399202064394</v>
+        <v>1924.647325680764</v>
       </c>
       <c r="AC6" t="n">
-        <v>1637.617243130606</v>
+        <v>1740.961686177278</v>
       </c>
       <c r="AD6" t="n">
-        <v>1323155.11517359</v>
+        <v>1406654.925044037</v>
       </c>
       <c r="AE6" t="n">
-        <v>1810399.202064394</v>
+        <v>1924647.325680764</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.575591859269671e-06</v>
+        <v>2.316817199660532e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.14583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1637617.243130606</v>
+        <v>1740961.686177278</v>
       </c>
     </row>
     <row r="7">
@@ -12383,28 +12383,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1242.186651876142</v>
+        <v>1325.771713092609</v>
       </c>
       <c r="AB7" t="n">
-        <v>1699.614578504329</v>
+        <v>1813.979346773349</v>
       </c>
       <c r="AC7" t="n">
-        <v>1537.405748555918</v>
+        <v>1640.855703853303</v>
       </c>
       <c r="AD7" t="n">
-        <v>1242186.651876142</v>
+        <v>1325771.713092609</v>
       </c>
       <c r="AE7" t="n">
-        <v>1699614.578504329</v>
+        <v>1813979.346773349</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.611850886779454e-06</v>
+        <v>2.370134013963298e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.69166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1537405.748555918</v>
+        <v>1640855.703853303</v>
       </c>
     </row>
     <row r="8">
@@ -12489,28 +12489,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1175.285537837538</v>
+        <v>1258.700006853413</v>
       </c>
       <c r="AB8" t="n">
-        <v>1608.077522807864</v>
+        <v>1722.208879302036</v>
       </c>
       <c r="AC8" t="n">
-        <v>1454.604860982059</v>
+        <v>1557.843680996793</v>
       </c>
       <c r="AD8" t="n">
-        <v>1175285.537837538</v>
+        <v>1258700.006853413</v>
       </c>
       <c r="AE8" t="n">
-        <v>1608077.522807864</v>
+        <v>1722208.879302036</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.638054889853751e-06</v>
+        <v>2.408665493207313e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.37708333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1454604.860982059</v>
+        <v>1557843.680996793</v>
       </c>
     </row>
     <row r="9">
@@ -12595,28 +12595,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1160.603286104563</v>
+        <v>1244.017755120438</v>
       </c>
       <c r="AB9" t="n">
-        <v>1587.988618251577</v>
+        <v>1702.119974745749</v>
       </c>
       <c r="AC9" t="n">
-        <v>1436.433213281669</v>
+        <v>1539.672033296403</v>
       </c>
       <c r="AD9" t="n">
-        <v>1160603.286104563</v>
+        <v>1244017.755120438</v>
       </c>
       <c r="AE9" t="n">
-        <v>1587988.618251577</v>
+        <v>1702119.974745749</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.643691797491827e-06</v>
+        <v>2.41695424164934e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.31041666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1436433.213281669</v>
+        <v>1539672.033296403</v>
       </c>
     </row>
     <row r="10">
@@ -12701,28 +12701,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1164.381111460595</v>
+        <v>1247.79558047647</v>
       </c>
       <c r="AB10" t="n">
-        <v>1593.157605569592</v>
+        <v>1707.288962063764</v>
       </c>
       <c r="AC10" t="n">
-        <v>1441.108879704772</v>
+        <v>1544.347699719505</v>
       </c>
       <c r="AD10" t="n">
-        <v>1164381.111460595</v>
+        <v>1247795.58047647</v>
       </c>
       <c r="AE10" t="n">
-        <v>1593157.605569592</v>
+        <v>1707288.962063764</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.644910588332492e-06</v>
+        <v>2.418746403474644e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.29583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1441108.879704772</v>
+        <v>1544347.699719505</v>
       </c>
     </row>
   </sheetData>
@@ -12998,28 +12998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6977.894386832863</v>
+        <v>7200.770239685708</v>
       </c>
       <c r="AB2" t="n">
-        <v>9547.462943039151</v>
+        <v>9852.411517501105</v>
       </c>
       <c r="AC2" t="n">
-        <v>8636.266479703532</v>
+        <v>8912.111190216841</v>
       </c>
       <c r="AD2" t="n">
-        <v>6977894.386832863</v>
+        <v>7200770.239685708</v>
       </c>
       <c r="AE2" t="n">
-        <v>9547462.943039151</v>
+        <v>9852411.517501105</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.254063415189744e-07</v>
+        <v>9.048207004038706e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.98333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>8636266.479703533</v>
+        <v>8912111.190216841</v>
       </c>
     </row>
     <row r="3">
@@ -13104,28 +13104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2543.33403607954</v>
+        <v>2663.311376795557</v>
       </c>
       <c r="AB3" t="n">
-        <v>3479.901832142938</v>
+        <v>3644.060122737311</v>
       </c>
       <c r="AC3" t="n">
-        <v>3147.784885355981</v>
+        <v>3296.276139093628</v>
       </c>
       <c r="AD3" t="n">
-        <v>2543334.03607954</v>
+        <v>2663311.376795557</v>
       </c>
       <c r="AE3" t="n">
-        <v>3479901.832142937</v>
+        <v>3644060.122737311</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.124937341316754e-06</v>
+        <v>1.627528417138399e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.23333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3147784.885355981</v>
+        <v>3296276.139093628</v>
       </c>
     </row>
     <row r="4">
@@ -13210,28 +13210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1968.744178272336</v>
+        <v>2071.557528571694</v>
       </c>
       <c r="AB4" t="n">
-        <v>2693.722639575446</v>
+        <v>2834.396401259922</v>
       </c>
       <c r="AC4" t="n">
-        <v>2436.637531517834</v>
+        <v>2563.885586824008</v>
       </c>
       <c r="AD4" t="n">
-        <v>1968744.178272336</v>
+        <v>2071557.528571694</v>
       </c>
       <c r="AE4" t="n">
-        <v>2693722.639575446</v>
+        <v>2834396.401259922</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.30933883491299e-06</v>
+        <v>1.894315428261477e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.39791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2436637.531517834</v>
+        <v>2563885.586824008</v>
       </c>
     </row>
     <row r="5">
@@ -13316,28 +13316,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1736.697326472673</v>
+        <v>1839.51058726348</v>
       </c>
       <c r="AB5" t="n">
-        <v>2376.225899758551</v>
+        <v>2516.899538973479</v>
       </c>
       <c r="AC5" t="n">
-        <v>2149.442234939591</v>
+        <v>2276.690179464538</v>
       </c>
       <c r="AD5" t="n">
-        <v>1736697.326472673</v>
+        <v>1839510.58726348</v>
       </c>
       <c r="AE5" t="n">
-        <v>2376225.899758551</v>
+        <v>2516899.538973479</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.404921746266702e-06</v>
+        <v>2.032602156515067e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.80625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2149442.234939591</v>
+        <v>2276690.179464538</v>
       </c>
     </row>
     <row r="6">
@@ -13422,28 +13422,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1598.986197300619</v>
+        <v>1693.302803737668</v>
       </c>
       <c r="AB6" t="n">
-        <v>2187.803457439106</v>
+        <v>2316.851599321288</v>
       </c>
       <c r="AC6" t="n">
-        <v>1979.002566062555</v>
+        <v>2095.734534403706</v>
       </c>
       <c r="AD6" t="n">
-        <v>1598986.197300619</v>
+        <v>1693302.803737668</v>
       </c>
       <c r="AE6" t="n">
-        <v>2187803.457439106</v>
+        <v>2316851.599321288</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.466830062697336e-06</v>
+        <v>2.122169406660853e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.88541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1979002.566062555</v>
+        <v>2095734.534403706</v>
       </c>
     </row>
     <row r="7">
@@ -13528,28 +13528,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1518.389581873304</v>
+        <v>1604.124282610575</v>
       </c>
       <c r="AB7" t="n">
-        <v>2077.527612539729</v>
+        <v>2194.833612436514</v>
       </c>
       <c r="AC7" t="n">
-        <v>1879.251293027253</v>
+        <v>1985.361772933895</v>
       </c>
       <c r="AD7" t="n">
-        <v>1518389.581873304</v>
+        <v>1604124.282610575</v>
       </c>
       <c r="AE7" t="n">
-        <v>2077527.612539728</v>
+        <v>2194833.612436514</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.506092581668783e-06</v>
+        <v>2.178973339651174e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.34166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1879251.293027253</v>
+        <v>1985361.772933895</v>
       </c>
     </row>
     <row r="8">
@@ -13634,28 +13634,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1435.024579453505</v>
+        <v>1529.255845035983</v>
       </c>
       <c r="AB8" t="n">
-        <v>1963.46393842462</v>
+        <v>2092.395313184604</v>
       </c>
       <c r="AC8" t="n">
-        <v>1776.073695880319</v>
+        <v>1892.70004118953</v>
       </c>
       <c r="AD8" t="n">
-        <v>1435024.579453505</v>
+        <v>1529255.845035983</v>
       </c>
       <c r="AE8" t="n">
-        <v>1963463.93842462</v>
+        <v>2092395.313184604</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.538002568997638e-06</v>
+        <v>2.225139832006603e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.91875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1776073.695880319</v>
+        <v>1892700.04118953</v>
       </c>
     </row>
     <row r="9">
@@ -13740,28 +13740,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1382.643058720518</v>
+        <v>1468.46301080381</v>
       </c>
       <c r="AB9" t="n">
-        <v>1891.793230848147</v>
+        <v>2009.215875397583</v>
       </c>
       <c r="AC9" t="n">
-        <v>1711.243140044475</v>
+        <v>1817.459132201829</v>
       </c>
       <c r="AD9" t="n">
-        <v>1382643.058720518</v>
+        <v>1468463.01080381</v>
       </c>
       <c r="AE9" t="n">
-        <v>1891793.230848148</v>
+        <v>2009215.875397583</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.560354265191121e-06</v>
+        <v>2.257477651536673e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.63333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1711243.140044475</v>
+        <v>1817459.132201829</v>
       </c>
     </row>
     <row r="10">
@@ -13846,28 +13846,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1335.898132309795</v>
+        <v>1421.547492192495</v>
       </c>
       <c r="AB10" t="n">
-        <v>1827.834760292389</v>
+        <v>1945.023993066978</v>
       </c>
       <c r="AC10" t="n">
-        <v>1653.388776152281</v>
+        <v>1759.393633026984</v>
       </c>
       <c r="AD10" t="n">
-        <v>1335898.132309795</v>
+        <v>1421547.492192495</v>
       </c>
       <c r="AE10" t="n">
-        <v>1827834.760292389</v>
+        <v>1945023.993066978</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.578735594297604e-06</v>
+        <v>2.284071253123902e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.40625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1653388.776152281</v>
+        <v>1759393.633026984</v>
       </c>
     </row>
     <row r="11">
@@ -13952,28 +13952,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1292.062401265642</v>
+        <v>1377.711761148341</v>
       </c>
       <c r="AB11" t="n">
-        <v>1767.856779181812</v>
+        <v>1885.0460119564</v>
       </c>
       <c r="AC11" t="n">
-        <v>1599.135009379272</v>
+        <v>1705.139866253975</v>
       </c>
       <c r="AD11" t="n">
-        <v>1292062.401265642</v>
+        <v>1377711.761148341</v>
       </c>
       <c r="AE11" t="n">
-        <v>1767856.779181812</v>
+        <v>1885046.0119564</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.592411303152827e-06</v>
+        <v>2.3038568927048e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.2375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1599135.009379272</v>
+        <v>1705139.866253975</v>
       </c>
     </row>
     <row r="12">
@@ -14058,28 +14058,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1278.01744990135</v>
+        <v>1363.66680978405</v>
       </c>
       <c r="AB12" t="n">
-        <v>1748.639857105665</v>
+        <v>1865.829089880253</v>
       </c>
       <c r="AC12" t="n">
-        <v>1581.752123374953</v>
+        <v>1687.756980249656</v>
       </c>
       <c r="AD12" t="n">
-        <v>1278017.44990135</v>
+        <v>1363666.80978405</v>
       </c>
       <c r="AE12" t="n">
-        <v>1748639.857105665</v>
+        <v>1865829.089880253</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.597558075302642e-06</v>
+        <v>2.311303101149224e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.17708333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1581752.123374953</v>
+        <v>1687756.980249656</v>
       </c>
     </row>
     <row r="13">
@@ -14164,28 +14164,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1277.994800025322</v>
+        <v>1363.644159908022</v>
       </c>
       <c r="AB13" t="n">
-        <v>1748.608866546041</v>
+        <v>1865.79809932063</v>
       </c>
       <c r="AC13" t="n">
-        <v>1581.724090510844</v>
+        <v>1687.728947385548</v>
       </c>
       <c r="AD13" t="n">
-        <v>1277994.800025322</v>
+        <v>1363644.159908022</v>
       </c>
       <c r="AE13" t="n">
-        <v>1748608.866546041</v>
+        <v>1865798.09932063</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.598587429732605e-06</v>
+        <v>2.312792342838109e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.1625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1581724.090510844</v>
+        <v>1687728.947385548</v>
       </c>
     </row>
     <row r="14">
@@ -14270,28 +14270,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1283.635616732451</v>
+        <v>1369.28497661515</v>
       </c>
       <c r="AB14" t="n">
-        <v>1756.326880820004</v>
+        <v>1873.516113594593</v>
       </c>
       <c r="AC14" t="n">
-        <v>1588.705508334801</v>
+        <v>1694.710365209505</v>
       </c>
       <c r="AD14" t="n">
-        <v>1283635.616732451</v>
+        <v>1369284.97661515</v>
       </c>
       <c r="AE14" t="n">
-        <v>1756326.880820004</v>
+        <v>1873516.113594593</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.598734480365457e-06</v>
+        <v>2.313005091650807e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.1625</v>
       </c>
       <c r="AH14" t="n">
-        <v>1588705.508334801</v>
+        <v>1694710.365209504</v>
       </c>
     </row>
   </sheetData>
@@ -14567,28 +14567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2664.764858333778</v>
+        <v>2802.222933589016</v>
       </c>
       <c r="AB2" t="n">
-        <v>3646.048840300984</v>
+        <v>3834.125043087502</v>
       </c>
       <c r="AC2" t="n">
-        <v>3298.075056244207</v>
+        <v>3468.201530203381</v>
       </c>
       <c r="AD2" t="n">
-        <v>2664764.858333778</v>
+        <v>2802222.933589016</v>
       </c>
       <c r="AE2" t="n">
-        <v>3646048.840300985</v>
+        <v>3834125.043087502</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.042810636440385e-06</v>
+        <v>1.565972688094377e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.78125</v>
       </c>
       <c r="AH2" t="n">
-        <v>3298075.056244207</v>
+        <v>3468201.530203381</v>
       </c>
     </row>
     <row r="3">
@@ -14673,28 +14673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1487.181050199106</v>
+        <v>1584.245420142922</v>
       </c>
       <c r="AB3" t="n">
-        <v>2034.826722679845</v>
+        <v>2167.634475814755</v>
       </c>
       <c r="AC3" t="n">
-        <v>1840.625716164522</v>
+        <v>1960.758483737088</v>
       </c>
       <c r="AD3" t="n">
-        <v>1487181.050199106</v>
+        <v>1584245.420142922</v>
       </c>
       <c r="AE3" t="n">
-        <v>2034826.722679845</v>
+        <v>2167634.475814755</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.446889815167857e-06</v>
+        <v>2.172772173641244e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.90625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1840625.716164522</v>
+        <v>1960758.483737088</v>
       </c>
     </row>
     <row r="4">
@@ -14779,28 +14779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1231.580495502207</v>
+        <v>1320.549056212824</v>
       </c>
       <c r="AB4" t="n">
-        <v>1685.102767442916</v>
+        <v>1806.833477223066</v>
       </c>
       <c r="AC4" t="n">
-        <v>1524.278924374751</v>
+        <v>1634.391826063608</v>
       </c>
       <c r="AD4" t="n">
-        <v>1231580.495502207</v>
+        <v>1320549.056212824</v>
       </c>
       <c r="AE4" t="n">
-        <v>1685102.767442916</v>
+        <v>1806833.477223066</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.590544735794199e-06</v>
+        <v>2.388496557676213e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.8375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1524278.924374751</v>
+        <v>1634391.826063608</v>
       </c>
     </row>
     <row r="5">
@@ -14885,28 +14885,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1099.619332786574</v>
+        <v>1188.50255264262</v>
       </c>
       <c r="AB5" t="n">
-        <v>1504.547682899765</v>
+        <v>1626.161625557717</v>
       </c>
       <c r="AC5" t="n">
-        <v>1360.955763689746</v>
+        <v>1470.963042346664</v>
       </c>
       <c r="AD5" t="n">
-        <v>1099619.332786574</v>
+        <v>1188502.552642619</v>
       </c>
       <c r="AE5" t="n">
-        <v>1504547.682899765</v>
+        <v>1626161.625557717</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.663724429579489e-06</v>
+        <v>2.498389377893363e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.92083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1360955.763689746</v>
+        <v>1470963.042346664</v>
       </c>
     </row>
     <row r="6">
@@ -14991,28 +14991,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1044.880480527391</v>
+        <v>1125.83857285938</v>
       </c>
       <c r="AB6" t="n">
-        <v>1429.651570331024</v>
+        <v>1540.422003878612</v>
       </c>
       <c r="AC6" t="n">
-        <v>1293.207630987211</v>
+        <v>1393.406289824298</v>
       </c>
       <c r="AD6" t="n">
-        <v>1044880.480527391</v>
+        <v>1125838.57285938</v>
       </c>
       <c r="AE6" t="n">
-        <v>1429651.570331024</v>
+        <v>1540422.003878613</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.693155393384443e-06</v>
+        <v>2.542585403415477e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.575</v>
       </c>
       <c r="AH6" t="n">
-        <v>1293207.630987211</v>
+        <v>1393406.289824298</v>
       </c>
     </row>
     <row r="7">
@@ -15097,28 +15097,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1048.601890358434</v>
+        <v>1129.559982690423</v>
       </c>
       <c r="AB7" t="n">
-        <v>1434.743367438871</v>
+        <v>1545.51380098646</v>
       </c>
       <c r="AC7" t="n">
-        <v>1297.813474125468</v>
+        <v>1398.012132962555</v>
       </c>
       <c r="AD7" t="n">
-        <v>1048601.890358434</v>
+        <v>1129559.982690423</v>
       </c>
       <c r="AE7" t="n">
-        <v>1434743.367438871</v>
+        <v>1545513.80098646</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.694428083711143e-06</v>
+        <v>2.544496582897514e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.55833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1297813.474125468</v>
+        <v>1398012.132962555</v>
       </c>
     </row>
     <row r="8">
@@ -15203,28 +15203,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1053.905359572659</v>
+        <v>1134.863451904648</v>
       </c>
       <c r="AB8" t="n">
-        <v>1441.999807990323</v>
+        <v>1552.770241537912</v>
       </c>
       <c r="AC8" t="n">
-        <v>1304.377370175167</v>
+        <v>1404.576029012255</v>
       </c>
       <c r="AD8" t="n">
-        <v>1053905.359572659</v>
+        <v>1134863.451904648</v>
       </c>
       <c r="AE8" t="n">
-        <v>1441999.807990323</v>
+        <v>1552770.241537912</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.694905342583656e-06</v>
+        <v>2.545213275203278e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.55416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1304377.370175167</v>
+        <v>1404576.029012255</v>
       </c>
     </row>
   </sheetData>
@@ -15500,28 +15500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1814.53483048737</v>
+        <v>1924.378926175904</v>
       </c>
       <c r="AB2" t="n">
-        <v>2482.72660669978</v>
+        <v>2633.020144400322</v>
       </c>
       <c r="AC2" t="n">
-        <v>2245.77866388503</v>
+        <v>2381.728397285737</v>
       </c>
       <c r="AD2" t="n">
-        <v>1814534.83048737</v>
+        <v>1924378.926175904</v>
       </c>
       <c r="AE2" t="n">
-        <v>2482726.60669978</v>
+        <v>2633020.144400322</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.256618209691598e-06</v>
+        <v>1.927334093700064e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.475</v>
       </c>
       <c r="AH2" t="n">
-        <v>2245778.66388503</v>
+        <v>2381728.397285737</v>
       </c>
     </row>
     <row r="3">
@@ -15606,28 +15606,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1134.315820013995</v>
+        <v>1220.585339726288</v>
       </c>
       <c r="AB3" t="n">
-        <v>1552.020947425306</v>
+        <v>1670.058710238265</v>
       </c>
       <c r="AC3" t="n">
-        <v>1403.898246478115</v>
+        <v>1510.670650875245</v>
       </c>
       <c r="AD3" t="n">
-        <v>1134315.820013995</v>
+        <v>1220585.339726288</v>
       </c>
       <c r="AE3" t="n">
-        <v>1552020.947425306</v>
+        <v>1670058.710238265</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.611911555541365e-06</v>
+        <v>2.472264107796456e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.41875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1403898.246478115</v>
+        <v>1510670.650875245</v>
       </c>
     </row>
     <row r="4">
@@ -15712,28 +15712,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>969.6789062489851</v>
+        <v>1048.175574823769</v>
       </c>
       <c r="AB4" t="n">
-        <v>1326.757458744</v>
+        <v>1434.160063716628</v>
       </c>
       <c r="AC4" t="n">
-        <v>1200.133588997261</v>
+        <v>1297.285840091804</v>
       </c>
       <c r="AD4" t="n">
-        <v>969678.9062489851</v>
+        <v>1048175.574823769</v>
       </c>
       <c r="AE4" t="n">
-        <v>1326757.458744</v>
+        <v>1434160.063716628</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.721946435039614e-06</v>
+        <v>2.641029746490487e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.05</v>
       </c>
       <c r="AH4" t="n">
-        <v>1200133.588997261</v>
+        <v>1297285.840091804</v>
       </c>
     </row>
     <row r="5">
@@ -15818,28 +15818,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>955.381448542581</v>
+        <v>1041.650878746322</v>
       </c>
       <c r="AB5" t="n">
-        <v>1307.195046350781</v>
+        <v>1425.232686694191</v>
       </c>
       <c r="AC5" t="n">
-        <v>1182.438185786832</v>
+        <v>1289.210479402736</v>
       </c>
       <c r="AD5" t="n">
-        <v>955381.4485425809</v>
+        <v>1041650.878746322</v>
       </c>
       <c r="AE5" t="n">
-        <v>1307195.046350781</v>
+        <v>1425232.686694191</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.729072187778205e-06</v>
+        <v>2.651958846586637e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.96666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1182438.185786832</v>
+        <v>1289210.479402736</v>
       </c>
     </row>
   </sheetData>
@@ -29016,28 +29016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1336.785870140745</v>
+        <v>1436.387910457361</v>
       </c>
       <c r="AB2" t="n">
-        <v>1829.049402356923</v>
+        <v>1965.329308050014</v>
       </c>
       <c r="AC2" t="n">
-        <v>1654.487494482937</v>
+        <v>1777.761037246728</v>
       </c>
       <c r="AD2" t="n">
-        <v>1336785.870140745</v>
+        <v>1436387.910457361</v>
       </c>
       <c r="AE2" t="n">
-        <v>1829049.402356923</v>
+        <v>1965329.308050014</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.43585348817722e-06</v>
+        <v>2.243492752541975e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1654487.494482937</v>
+        <v>1777761.037246728</v>
       </c>
     </row>
     <row r="3">
@@ -29122,28 +29122,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>909.1251107672384</v>
+        <v>993.3906309036722</v>
       </c>
       <c r="AB3" t="n">
-        <v>1243.905084320959</v>
+        <v>1359.200886504006</v>
       </c>
       <c r="AC3" t="n">
-        <v>1125.188528905117</v>
+        <v>1229.480661546488</v>
       </c>
       <c r="AD3" t="n">
-        <v>909125.1107672384</v>
+        <v>993390.6309036722</v>
       </c>
       <c r="AE3" t="n">
-        <v>1243905.084320959</v>
+        <v>1359200.886504006</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.730875438171609e-06</v>
+        <v>2.704458729992398e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.63333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1125188.528905116</v>
+        <v>1229480.661546488</v>
       </c>
     </row>
     <row r="4">
@@ -29228,28 +29228,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>898.0292119585916</v>
+        <v>982.1241398944334</v>
       </c>
       <c r="AB4" t="n">
-        <v>1228.723186054461</v>
+        <v>1343.785576462661</v>
       </c>
       <c r="AC4" t="n">
-        <v>1111.455569701245</v>
+        <v>1215.536567059966</v>
       </c>
       <c r="AD4" t="n">
-        <v>898029.2119585916</v>
+        <v>982124.1398944333</v>
       </c>
       <c r="AE4" t="n">
-        <v>1228723.186054461</v>
+        <v>1343785.576462661</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.744075141919179e-06</v>
+        <v>2.725083006728994e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.47708333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1111455.569701245</v>
+        <v>1215536.567059966</v>
       </c>
     </row>
   </sheetData>
@@ -29525,28 +29525,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>796.860907788179</v>
+        <v>884.2766408435838</v>
       </c>
       <c r="AB2" t="n">
-        <v>1090.300249057922</v>
+        <v>1209.90631153429</v>
       </c>
       <c r="AC2" t="n">
-        <v>986.2435235338435</v>
+        <v>1094.43455127563</v>
       </c>
       <c r="AD2" t="n">
-        <v>796860.907788179</v>
+        <v>884276.6408435837</v>
       </c>
       <c r="AE2" t="n">
-        <v>1090300.249057922</v>
+        <v>1209906.31153429</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.695477270033141e-06</v>
+        <v>2.763078841179135e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.60833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>986243.5235338435</v>
+        <v>1094434.55127563</v>
       </c>
     </row>
     <row r="3">
@@ -29631,28 +29631,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>805.599155841285</v>
+        <v>893.0148888966897</v>
       </c>
       <c r="AB3" t="n">
-        <v>1102.256305548478</v>
+        <v>1221.862368024846</v>
       </c>
       <c r="AC3" t="n">
-        <v>997.0585107733717</v>
+        <v>1105.249538515159</v>
       </c>
       <c r="AD3" t="n">
-        <v>805599.155841285</v>
+        <v>893014.8888966898</v>
       </c>
       <c r="AE3" t="n">
-        <v>1102256.305548478</v>
+        <v>1221862.368024846</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.69639722514439e-06</v>
+        <v>2.764578070067459e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.59583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>997058.5107733717</v>
+        <v>1105249.538515158</v>
       </c>
     </row>
   </sheetData>
@@ -29928,28 +29928,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3803.999970892762</v>
+        <v>3961.561347183394</v>
       </c>
       <c r="AB2" t="n">
-        <v>5204.800580810304</v>
+        <v>5420.383006968496</v>
       </c>
       <c r="AC2" t="n">
-        <v>4708.061718361068</v>
+        <v>4903.069260338549</v>
       </c>
       <c r="AD2" t="n">
-        <v>3803999.970892762</v>
+        <v>3961561.347183394</v>
       </c>
       <c r="AE2" t="n">
-        <v>5204800.580810305</v>
+        <v>5420383.006968496</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.673636955199855e-07</v>
+        <v>1.281426474514294e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.95416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4708061.718361069</v>
+        <v>4903069.260338549</v>
       </c>
     </row>
     <row r="3">
@@ -30034,28 +30034,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1852.501662610585</v>
+        <v>1951.982758935219</v>
       </c>
       <c r="AB3" t="n">
-        <v>2534.674501389182</v>
+        <v>2670.78892617677</v>
       </c>
       <c r="AC3" t="n">
-        <v>2292.768724414604</v>
+        <v>2415.89257953826</v>
       </c>
       <c r="AD3" t="n">
-        <v>1852501.662610585</v>
+        <v>1951982.758935219</v>
       </c>
       <c r="AE3" t="n">
-        <v>2534674.501389182</v>
+        <v>2670788.92617677</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.313585926672719e-06</v>
+        <v>1.940666633480314e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.40416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2292768.724414604</v>
+        <v>2415892.57953826</v>
       </c>
     </row>
     <row r="4">
@@ -30140,28 +30140,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1505.117419174832</v>
+        <v>1596.386571206266</v>
       </c>
       <c r="AB4" t="n">
-        <v>2059.368054009186</v>
+        <v>2184.246534329403</v>
       </c>
       <c r="AC4" t="n">
-        <v>1862.824857275765</v>
+        <v>1975.78511070227</v>
       </c>
       <c r="AD4" t="n">
-        <v>1505117.419174832</v>
+        <v>1596386.571206266</v>
       </c>
       <c r="AE4" t="n">
-        <v>2059368.054009186</v>
+        <v>2184246.534329403</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.47207175359938e-06</v>
+        <v>2.174810552009624e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.77708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1862824.857275765</v>
+        <v>1975785.110702269</v>
       </c>
     </row>
     <row r="5">
@@ -30246,28 +30246,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1345.881487348853</v>
+        <v>1437.065298525715</v>
       </c>
       <c r="AB5" t="n">
-        <v>1841.494427091368</v>
+        <v>1966.256140289388</v>
       </c>
       <c r="AC5" t="n">
-        <v>1665.744783523428</v>
+        <v>1778.599413917993</v>
       </c>
       <c r="AD5" t="n">
-        <v>1345881.487348853</v>
+        <v>1437065.298525715</v>
       </c>
       <c r="AE5" t="n">
-        <v>1841494.427091368</v>
+        <v>1966256.140289388</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.555469149904476e-06</v>
+        <v>2.298020264478445e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.60833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1665744.783523428</v>
+        <v>1778599.413917993</v>
       </c>
     </row>
     <row r="6">
@@ -30352,28 +30352,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1240.586754700849</v>
+        <v>1331.685225023139</v>
       </c>
       <c r="AB6" t="n">
-        <v>1697.425528606611</v>
+        <v>1822.070474682434</v>
       </c>
       <c r="AC6" t="n">
-        <v>1535.425618508087</v>
+        <v>1648.174625870714</v>
       </c>
       <c r="AD6" t="n">
-        <v>1240586.754700849</v>
+        <v>1331685.225023139</v>
       </c>
       <c r="AE6" t="n">
-        <v>1697425.528606611</v>
+        <v>1822070.474682434</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.607169380824242e-06</v>
+        <v>2.374401193241405e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.94583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1535425.618508087</v>
+        <v>1648174.625870714</v>
       </c>
     </row>
     <row r="7">
@@ -30458,28 +30458,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1165.41602494649</v>
+        <v>1248.387981338702</v>
       </c>
       <c r="AB7" t="n">
-        <v>1594.573619858153</v>
+        <v>1708.099511058351</v>
       </c>
       <c r="AC7" t="n">
-        <v>1442.389751577022</v>
+        <v>1545.080891055662</v>
       </c>
       <c r="AD7" t="n">
-        <v>1165416.02494649</v>
+        <v>1248387.981338702</v>
       </c>
       <c r="AE7" t="n">
-        <v>1594573.619858153</v>
+        <v>1708099.511058351</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.641943940907179e-06</v>
+        <v>2.425776460802205e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.52291666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1442389.751577022</v>
+        <v>1545080.891055661</v>
       </c>
     </row>
     <row r="8">
@@ -30564,28 +30564,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1134.55591839313</v>
+        <v>1217.35728258475</v>
       </c>
       <c r="AB8" t="n">
-        <v>1552.349460620032</v>
+        <v>1665.641940045383</v>
       </c>
       <c r="AC8" t="n">
-        <v>1404.195406834607</v>
+        <v>1506.675411030596</v>
       </c>
       <c r="AD8" t="n">
-        <v>1134555.91839313</v>
+        <v>1217357.28258475</v>
       </c>
       <c r="AE8" t="n">
-        <v>1552349.460620032</v>
+        <v>1665641.940045383</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.655176738106881e-06</v>
+        <v>2.445326341378439e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.36666666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1404195.406834607</v>
+        <v>1506675.411030596</v>
       </c>
     </row>
     <row r="9">
@@ -30670,28 +30670,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1136.465704541968</v>
+        <v>1219.267068733588</v>
       </c>
       <c r="AB9" t="n">
-        <v>1554.96251428269</v>
+        <v>1668.254993708041</v>
       </c>
       <c r="AC9" t="n">
-        <v>1406.559074323145</v>
+        <v>1509.039078519134</v>
       </c>
       <c r="AD9" t="n">
-        <v>1136465.704541968</v>
+        <v>1219267.068733588</v>
       </c>
       <c r="AE9" t="n">
-        <v>1554962.51428269</v>
+        <v>1668254.993708041</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.655946086781282e-06</v>
+        <v>2.446462962342174e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.35833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1406559.074323145</v>
+        <v>1509039.078519134</v>
       </c>
     </row>
     <row r="10">
@@ -30776,28 +30776,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1142.338608997103</v>
+        <v>1225.139973188723</v>
       </c>
       <c r="AB10" t="n">
-        <v>1562.998081252465</v>
+        <v>1676.290560677816</v>
       </c>
       <c r="AC10" t="n">
-        <v>1413.827738059314</v>
+        <v>1516.307742255303</v>
       </c>
       <c r="AD10" t="n">
-        <v>1142338.608997103</v>
+        <v>1225139.973188723</v>
       </c>
       <c r="AE10" t="n">
-        <v>1562998.081252465</v>
+        <v>1676290.560677816</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.656253826251042e-06</v>
+        <v>2.446917610727667e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.35625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1413827.738059314</v>
+        <v>1516307.742255303</v>
       </c>
     </row>
   </sheetData>
@@ -31073,28 +31073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6159.407708502828</v>
+        <v>6355.48906249306</v>
       </c>
       <c r="AB2" t="n">
-        <v>8427.573360664133</v>
+        <v>8695.860519692402</v>
       </c>
       <c r="AC2" t="n">
-        <v>7623.25758729553</v>
+        <v>7865.939796409523</v>
       </c>
       <c r="AD2" t="n">
-        <v>6159407.708502828</v>
+        <v>6355489.062493061</v>
       </c>
       <c r="AE2" t="n">
-        <v>8427573.360664133</v>
+        <v>8695860.519692402</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.699009060714056e-07</v>
+        <v>9.728093393385639e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.11458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>7623257.58729553</v>
+        <v>7865939.796409523</v>
       </c>
     </row>
     <row r="3">
@@ -31179,28 +31179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2388.280432937295</v>
+        <v>2507.600851852617</v>
       </c>
       <c r="AB3" t="n">
-        <v>3267.750651841513</v>
+        <v>3431.010113046831</v>
       </c>
       <c r="AC3" t="n">
-        <v>2955.88111594648</v>
+        <v>3103.559323310449</v>
       </c>
       <c r="AD3" t="n">
-        <v>2388280.432937295</v>
+        <v>2507600.851852617</v>
       </c>
       <c r="AE3" t="n">
-        <v>3267750.651841513</v>
+        <v>3431010.113046831</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.160687094450412e-06</v>
+        <v>1.685513835401124e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.61458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2955881.115946481</v>
+        <v>3103559.323310449</v>
       </c>
     </row>
     <row r="4">
@@ -31285,28 +31285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1876.827319054402</v>
+        <v>1970.646219810726</v>
       </c>
       <c r="AB4" t="n">
-        <v>2567.957937707834</v>
+        <v>2696.325096720422</v>
       </c>
       <c r="AC4" t="n">
-        <v>2322.8756362846</v>
+        <v>2438.991613805465</v>
       </c>
       <c r="AD4" t="n">
-        <v>1876827.319054402</v>
+        <v>1970646.219810726</v>
       </c>
       <c r="AE4" t="n">
-        <v>2567957.937707834</v>
+        <v>2696325.096720422</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.339356990824039e-06</v>
+        <v>1.944972722940515e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2322875.6362846</v>
+        <v>2438991.613805465</v>
       </c>
     </row>
     <row r="5">
@@ -31391,28 +31391,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1660.379567247327</v>
+        <v>1754.1983784951</v>
       </c>
       <c r="AB5" t="n">
-        <v>2271.804574684519</v>
+        <v>2400.171611227559</v>
       </c>
       <c r="AC5" t="n">
-        <v>2054.986734574375</v>
+        <v>2171.102601314014</v>
       </c>
       <c r="AD5" t="n">
-        <v>1660379.567247327</v>
+        <v>1754198.3784951</v>
       </c>
       <c r="AE5" t="n">
-        <v>2271804.574684519</v>
+        <v>2400171.611227559</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.432472920220418e-06</v>
+        <v>2.080192790471418e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.56458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2054986.734574375</v>
+        <v>2171102.601314014</v>
       </c>
     </row>
     <row r="6">
@@ -31497,28 +31497,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1531.614073201386</v>
+        <v>1625.347543594587</v>
       </c>
       <c r="AB6" t="n">
-        <v>2095.621944998191</v>
+        <v>2223.872214419033</v>
       </c>
       <c r="AC6" t="n">
-        <v>1895.618727791436</v>
+        <v>2011.628971499136</v>
       </c>
       <c r="AD6" t="n">
-        <v>1531614.073201386</v>
+        <v>1625347.543594587</v>
       </c>
       <c r="AE6" t="n">
-        <v>2095621.944998191</v>
+        <v>2223872.214419033</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.492078976935935e-06</v>
+        <v>2.166750859177505e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.70208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1895618.727791436</v>
+        <v>2011628.971499136</v>
       </c>
     </row>
     <row r="7">
@@ -31603,28 +31603,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1447.469668079409</v>
+        <v>1532.674245140455</v>
       </c>
       <c r="AB7" t="n">
-        <v>1980.491857721142</v>
+        <v>2097.07251901671</v>
       </c>
       <c r="AC7" t="n">
-        <v>1791.476494458016</v>
+        <v>1896.930861061521</v>
       </c>
       <c r="AD7" t="n">
-        <v>1447469.668079409</v>
+        <v>1532674.245140455</v>
       </c>
       <c r="AE7" t="n">
-        <v>1980491.857721142</v>
+        <v>2097072.519016711</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.532557716944234e-06</v>
+        <v>2.225532831209251e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.15625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1791476.494458016</v>
+        <v>1896930.861061521</v>
       </c>
     </row>
     <row r="8">
@@ -31709,28 +31709,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1378.430852526409</v>
+        <v>1463.720680933475</v>
       </c>
       <c r="AB8" t="n">
-        <v>1886.029904503946</v>
+        <v>2002.727210452163</v>
       </c>
       <c r="AC8" t="n">
-        <v>1706.029857477685</v>
+        <v>1811.589736331902</v>
       </c>
       <c r="AD8" t="n">
-        <v>1378430.852526409</v>
+        <v>1463720.680933475</v>
       </c>
       <c r="AE8" t="n">
-        <v>1886029.904503946</v>
+        <v>2002727.210452164</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.560433186253978e-06</v>
+        <v>2.266012724036974e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.79583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1706029.857477685</v>
+        <v>1811589.736331902</v>
       </c>
     </row>
     <row r="9">
@@ -31815,28 +31815,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1320.731515855333</v>
+        <v>1406.021344262399</v>
       </c>
       <c r="AB9" t="n">
-        <v>1807.083126555498</v>
+        <v>1923.780432503716</v>
       </c>
       <c r="AC9" t="n">
-        <v>1634.617649214138</v>
+        <v>1740.177528068356</v>
       </c>
       <c r="AD9" t="n">
-        <v>1320731.515855333</v>
+        <v>1406021.344262399</v>
       </c>
       <c r="AE9" t="n">
-        <v>1807083.126555498</v>
+        <v>1923780.432503716</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.583712168603073e-06</v>
+        <v>2.299817740919699e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.50416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1634617.649214138</v>
+        <v>1740177.528068356</v>
       </c>
     </row>
     <row r="10">
@@ -31921,28 +31921,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1270.677116521301</v>
+        <v>1355.796352727775</v>
       </c>
       <c r="AB10" t="n">
-        <v>1738.596489142428</v>
+        <v>1855.060383315799</v>
       </c>
       <c r="AC10" t="n">
-        <v>1572.667280354172</v>
+        <v>1678.016023925738</v>
       </c>
       <c r="AD10" t="n">
-        <v>1270677.116521301</v>
+        <v>1355796.352727775</v>
       </c>
       <c r="AE10" t="n">
-        <v>1738596.489142428</v>
+        <v>1855060.383315799</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.601356747581049e-06</v>
+        <v>2.325440651805332e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.28958333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1572667.280354172</v>
+        <v>1678016.023925738</v>
       </c>
     </row>
     <row r="11">
@@ -32027,28 +32027,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1244.494220932056</v>
+        <v>1329.61345713853</v>
       </c>
       <c r="AB11" t="n">
-        <v>1702.771896289393</v>
+        <v>1819.235790462764</v>
       </c>
       <c r="AC11" t="n">
-        <v>1540.261736362898</v>
+        <v>1645.610479934465</v>
       </c>
       <c r="AD11" t="n">
-        <v>1244494.220932056</v>
+        <v>1329613.45713853</v>
       </c>
       <c r="AE11" t="n">
-        <v>1702771.896289393</v>
+        <v>1819235.790462764</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.609363531318954e-06</v>
+        <v>2.337067855064359e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.19583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1540261.736362898</v>
+        <v>1645610.479934465</v>
       </c>
     </row>
     <row r="12">
@@ -32133,28 +32133,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1244.081950054861</v>
+        <v>1329.201186261335</v>
       </c>
       <c r="AB12" t="n">
-        <v>1702.207809087107</v>
+        <v>1818.671703260478</v>
       </c>
       <c r="AC12" t="n">
-        <v>1539.751484851497</v>
+        <v>1645.100228423064</v>
       </c>
       <c r="AD12" t="n">
-        <v>1244081.950054861</v>
+        <v>1329201.186261335</v>
       </c>
       <c r="AE12" t="n">
-        <v>1702207.809087107</v>
+        <v>1818671.703260478</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.610549721502348e-06</v>
+        <v>2.338790403695326e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.17916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1539751.484851497</v>
+        <v>1645100.228423064</v>
       </c>
     </row>
     <row r="13">
@@ -32239,28 +32239,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1250.854756248647</v>
+        <v>1335.973992455122</v>
       </c>
       <c r="AB13" t="n">
-        <v>1711.474661316567</v>
+        <v>1827.938555489937</v>
       </c>
       <c r="AC13" t="n">
-        <v>1548.133921710287</v>
+        <v>1653.482665281853</v>
       </c>
       <c r="AD13" t="n">
-        <v>1250854.756248647</v>
+        <v>1335973.992455122</v>
       </c>
       <c r="AE13" t="n">
-        <v>1711474.661316567</v>
+        <v>1827938.555489938</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.610401447729424e-06</v>
+        <v>2.338575085116455e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.18125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1548133.921710287</v>
+        <v>1653482.665281853</v>
       </c>
     </row>
   </sheetData>
@@ -32536,28 +32536,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>769.7114331577247</v>
+        <v>862.1297239165477</v>
       </c>
       <c r="AB2" t="n">
-        <v>1053.153140118247</v>
+        <v>1179.603922741701</v>
       </c>
       <c r="AC2" t="n">
-        <v>952.6416825350761</v>
+        <v>1067.024179939736</v>
       </c>
       <c r="AD2" t="n">
-        <v>769711.4331577248</v>
+        <v>862129.7239165477</v>
       </c>
       <c r="AE2" t="n">
-        <v>1053153.140118247</v>
+        <v>1179603.922741701</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.592201647621782e-06</v>
+        <v>2.654105284736994e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.92916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>952641.6825350762</v>
+        <v>1067024.179939736</v>
       </c>
     </row>
   </sheetData>
@@ -32833,28 +32833,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2070.872304632228</v>
+        <v>2189.925078414898</v>
       </c>
       <c r="AB2" t="n">
-        <v>2833.458847635999</v>
+        <v>2996.352104963313</v>
       </c>
       <c r="AC2" t="n">
-        <v>2563.037512002088</v>
+        <v>2710.384465472093</v>
       </c>
       <c r="AD2" t="n">
-        <v>2070872.304632229</v>
+        <v>2189925.078414898</v>
       </c>
       <c r="AE2" t="n">
-        <v>2833458.847635999</v>
+        <v>2996352.104963313</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.180167254663266e-06</v>
+        <v>1.796104359611312e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.82708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2563037.512002088</v>
+        <v>2710384.465472093</v>
       </c>
     </row>
     <row r="3">
@@ -32939,28 +32939,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1253.124310124988</v>
+        <v>1348.264120125635</v>
       </c>
       <c r="AB3" t="n">
-        <v>1714.579965055826</v>
+        <v>1844.754450370901</v>
       </c>
       <c r="AC3" t="n">
-        <v>1550.942859618993</v>
+        <v>1668.693674756634</v>
       </c>
       <c r="AD3" t="n">
-        <v>1253124.310124988</v>
+        <v>1348264.120125635</v>
       </c>
       <c r="AE3" t="n">
-        <v>1714579.965055826</v>
+        <v>1844754.450370901</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.550857675043176e-06</v>
+        <v>2.360260564996351e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.9375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1550942.859618993</v>
+        <v>1668693.674756634</v>
       </c>
     </row>
     <row r="4">
@@ -33045,28 +33045,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1047.864278878493</v>
+        <v>1127.204437290631</v>
       </c>
       <c r="AB4" t="n">
-        <v>1433.734134870894</v>
+        <v>1542.290839851136</v>
       </c>
       <c r="AC4" t="n">
-        <v>1296.900561297312</v>
+        <v>1395.096766714532</v>
       </c>
       <c r="AD4" t="n">
-        <v>1047864.278878493</v>
+        <v>1127204.437290631</v>
       </c>
       <c r="AE4" t="n">
-        <v>1433734.134870894</v>
+        <v>1542290.839851136</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.681497470771779e-06</v>
+        <v>2.559082135176101e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.23333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1296900.561297312</v>
+        <v>1395096.766714532</v>
       </c>
     </row>
     <row r="5">
@@ -33151,28 +33151,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>985.331344044884</v>
+        <v>1072.528613069715</v>
       </c>
       <c r="AB5" t="n">
-        <v>1348.173814673169</v>
+        <v>1467.480965024954</v>
       </c>
       <c r="AC5" t="n">
-        <v>1219.505997974594</v>
+        <v>1327.426641345442</v>
       </c>
       <c r="AD5" t="n">
-        <v>985331.344044884</v>
+        <v>1072528.613069715</v>
       </c>
       <c r="AE5" t="n">
-        <v>1348173.814673169</v>
+        <v>1467480.965024954</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.717586714341806e-06</v>
+        <v>2.614006593938257e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.80625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1219505.997974594</v>
+        <v>1327426.641345442</v>
       </c>
     </row>
     <row r="6">
@@ -33257,28 +33257,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>988.8172486512177</v>
+        <v>1068.242658409376</v>
       </c>
       <c r="AB6" t="n">
-        <v>1352.943383142812</v>
+        <v>1461.616732775703</v>
       </c>
       <c r="AC6" t="n">
-        <v>1223.820365523626</v>
+        <v>1322.122083191558</v>
       </c>
       <c r="AD6" t="n">
-        <v>988817.2486512177</v>
+        <v>1068242.658409376</v>
       </c>
       <c r="AE6" t="n">
-        <v>1352943.383142812</v>
+        <v>1461616.732775703</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.71856651280977e-06</v>
+        <v>2.615497755714605e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.79791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1223820.365523626</v>
+        <v>1322122.083191558</v>
       </c>
     </row>
   </sheetData>
@@ -33554,28 +33554,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3007.789975578547</v>
+        <v>3146.445142979485</v>
       </c>
       <c r="AB2" t="n">
-        <v>4115.390938915431</v>
+        <v>4305.105055987671</v>
       </c>
       <c r="AC2" t="n">
-        <v>3722.623803692645</v>
+        <v>3894.231871696941</v>
       </c>
       <c r="AD2" t="n">
-        <v>3007789.975578547</v>
+        <v>3146445.142979485</v>
       </c>
       <c r="AE2" t="n">
-        <v>4115390.93891543</v>
+        <v>4305105.055987671</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.810693467755309e-07</v>
+        <v>1.464648919377733e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.3875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3722623.803692645</v>
+        <v>3894231.871696941</v>
       </c>
     </row>
     <row r="3">
@@ -33660,28 +33660,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1606.950960978197</v>
+        <v>1704.77502261398</v>
       </c>
       <c r="AB3" t="n">
-        <v>2198.701198483344</v>
+        <v>2332.548395306434</v>
       </c>
       <c r="AC3" t="n">
-        <v>1988.860241996606</v>
+        <v>2109.933250210621</v>
       </c>
       <c r="AD3" t="n">
-        <v>1606950.960978197</v>
+        <v>1704775.02261398</v>
       </c>
       <c r="AE3" t="n">
-        <v>2198701.198483344</v>
+        <v>2332548.395306434</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.401011049537942e-06</v>
+        <v>2.091584378297272e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.37916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1988860.241996606</v>
+        <v>2109933.250210621</v>
       </c>
     </row>
     <row r="4">
@@ -33766,28 +33766,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1331.395215083002</v>
+        <v>1421.053055565753</v>
       </c>
       <c r="AB4" t="n">
-        <v>1821.673670288003</v>
+        <v>1944.347483061265</v>
       </c>
       <c r="AC4" t="n">
-        <v>1647.815691930769</v>
+        <v>1758.781688186729</v>
       </c>
       <c r="AD4" t="n">
-        <v>1331395.215083002</v>
+        <v>1421053.055565753</v>
       </c>
       <c r="AE4" t="n">
-        <v>1821673.670288003</v>
+        <v>1944347.483061265</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.547542560947364e-06</v>
+        <v>2.31034283869151e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.16666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1647815.691930769</v>
+        <v>1758781.688186729</v>
       </c>
     </row>
     <row r="5">
@@ -33872,28 +33872,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1188.705492449879</v>
+        <v>1270.28245263417</v>
       </c>
       <c r="AB5" t="n">
-        <v>1626.439296755082</v>
+        <v>1738.056492600714</v>
       </c>
       <c r="AC5" t="n">
-        <v>1471.214212994666</v>
+        <v>1572.178820324509</v>
       </c>
       <c r="AD5" t="n">
-        <v>1188705.492449879</v>
+        <v>1270282.45263417</v>
       </c>
       <c r="AE5" t="n">
-        <v>1626439.296755082</v>
+        <v>1738056.492600714</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.625524996203881e-06</v>
+        <v>2.426763650231792e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.15</v>
       </c>
       <c r="AH5" t="n">
-        <v>1471214.212994666</v>
+        <v>1572178.820324509</v>
       </c>
     </row>
     <row r="6">
@@ -33978,28 +33978,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1089.55437510094</v>
+        <v>1171.216586631252</v>
       </c>
       <c r="AB6" t="n">
-        <v>1490.776363759685</v>
+        <v>1602.510204257966</v>
       </c>
       <c r="AC6" t="n">
-        <v>1348.498759920227</v>
+        <v>1449.568879500782</v>
       </c>
       <c r="AD6" t="n">
-        <v>1089554.37510094</v>
+        <v>1171216.586631252</v>
       </c>
       <c r="AE6" t="n">
-        <v>1490776.363759685</v>
+        <v>1602510.204257966</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.672062901115027e-06</v>
+        <v>2.496240586150991e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.58958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1348498.759920228</v>
+        <v>1449568.879500783</v>
       </c>
     </row>
     <row r="7">
@@ -34084,28 +34084,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1073.166747099285</v>
+        <v>1154.658366429005</v>
       </c>
       <c r="AB7" t="n">
-        <v>1468.354088156698</v>
+        <v>1579.854516880131</v>
       </c>
       <c r="AC7" t="n">
-        <v>1328.216434830927</v>
+        <v>1429.075419128832</v>
       </c>
       <c r="AD7" t="n">
-        <v>1073166.747099285</v>
+        <v>1154658.366429005</v>
       </c>
       <c r="AE7" t="n">
-        <v>1468354.088156698</v>
+        <v>1579854.516880131</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.681024592263458e-06</v>
+        <v>2.509619590702999e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.48541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1328216.434830928</v>
+        <v>1429075.419128832</v>
       </c>
     </row>
     <row r="8">
@@ -34190,28 +34190,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1078.814076866503</v>
+        <v>1160.305696196223</v>
       </c>
       <c r="AB8" t="n">
-        <v>1476.081013886811</v>
+        <v>1587.581442610245</v>
       </c>
       <c r="AC8" t="n">
-        <v>1335.205913614168</v>
+        <v>1436.064897912072</v>
       </c>
       <c r="AD8" t="n">
-        <v>1078814.076866503</v>
+        <v>1160305.696196223</v>
       </c>
       <c r="AE8" t="n">
-        <v>1476081.013886811</v>
+        <v>1587581.442610245</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.681024592263458e-06</v>
+        <v>2.509619590702999e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.48541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1335205.913614168</v>
+        <v>1436064.897912072</v>
       </c>
     </row>
   </sheetData>
